--- a/src/test/java/day12_table_excel/countries.xlsx
+++ b/src/test/java/day12_table_excel/countries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="578">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1740,12 +1740,28 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Mac</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2099,21 +2115,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.33203125"/>
+    <col min="2" max="2" customWidth="true" width="16.21875"/>
+    <col min="3" max="3" customWidth="true" width="12.109375"/>
+    <col min="4" max="4" customWidth="true" width="14.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2126,8 +2142,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E1" t="s" s="0">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2169,7 +2188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -2181,6 +2200,9 @@
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2196,6 +2218,9 @@
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E6" t="s" s="0">
+        <v>575</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -2210,8 +2235,11 @@
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" t="s" s="0">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2224,8 +2252,11 @@
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" t="s" s="0">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -2267,7 +2298,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -2281,7 +2312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -2309,7 +2340,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2421,7 +2452,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -2463,7 +2494,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
@@ -2491,7 +2522,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>84</v>
       </c>
@@ -2519,7 +2550,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>88</v>
       </c>
@@ -2561,7 +2592,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>97</v>
       </c>
@@ -2575,7 +2606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>101</v>
       </c>
@@ -2659,7 +2690,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>121</v>
       </c>
@@ -2687,7 +2718,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
@@ -2743,7 +2774,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>140</v>
       </c>
@@ -2757,7 +2788,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>144</v>
       </c>
@@ -2799,7 +2830,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>153</v>
       </c>
@@ -2813,7 +2844,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>156</v>
       </c>
@@ -2855,7 +2886,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>167</v>
       </c>
@@ -2869,7 +2900,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>169</v>
       </c>
@@ -2897,7 +2928,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>175</v>
       </c>
@@ -2981,7 +3012,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>191</v>
       </c>
@@ -3051,7 +3082,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>208</v>
       </c>
@@ -3065,7 +3096,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>210</v>
       </c>
@@ -3093,7 +3124,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>215</v>
       </c>
@@ -3107,7 +3138,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>218</v>
       </c>
@@ -3121,7 +3152,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>220</v>
       </c>
@@ -3135,7 +3166,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>222</v>
       </c>
@@ -3317,7 +3348,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>265</v>
       </c>
@@ -3359,7 +3390,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>272</v>
       </c>
@@ -3373,7 +3404,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>275</v>
       </c>
@@ -3471,7 +3502,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>298</v>
       </c>
@@ -3499,7 +3530,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>303</v>
       </c>
@@ -3527,7 +3558,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>309</v>
       </c>
@@ -3555,7 +3586,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>315</v>
       </c>
@@ -3611,7 +3642,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>325</v>
       </c>
@@ -3653,7 +3684,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>335</v>
       </c>
@@ -3709,7 +3740,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>346</v>
       </c>
@@ -3723,7 +3754,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>350</v>
       </c>
@@ -3751,7 +3782,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>356</v>
       </c>
@@ -3765,7 +3796,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>359</v>
       </c>
@@ -3793,7 +3824,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>365</v>
       </c>
@@ -3807,7 +3838,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>368</v>
       </c>
@@ -3821,7 +3852,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>371</v>
       </c>
@@ -3835,7 +3866,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>374</v>
       </c>
@@ -3947,7 +3978,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>398</v>
       </c>
@@ -3961,7 +3992,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>400</v>
       </c>
@@ -4129,7 +4160,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>437</v>
       </c>
@@ -4171,7 +4202,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>443</v>
       </c>
@@ -4185,7 +4216,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>446</v>
       </c>
@@ -4241,7 +4272,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>459</v>
       </c>
@@ -4325,7 +4356,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>476</v>
       </c>
@@ -4381,7 +4412,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>487</v>
       </c>
@@ -4423,7 +4454,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>496</v>
       </c>
@@ -4465,7 +4496,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>507</v>
       </c>
@@ -4521,7 +4552,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>519</v>
       </c>
@@ -4563,7 +4594,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>528</v>
       </c>
@@ -4619,7 +4650,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>539</v>
       </c>
@@ -4633,7 +4664,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>543</v>
       </c>
@@ -4675,7 +4706,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>552</v>
       </c>
@@ -4703,7 +4734,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>558</v>
       </c>
@@ -4795,12 +4826,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0">
+        <v>5</v>
+      </c>
+      <c r="F6" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="0">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="0">
+        <v>2</v>
+      </c>
+      <c r="E15" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="0">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
